--- a/scene_classification/results/tables/performance/performance_ucmerced.xlsx
+++ b/scene_classification/results/tables/performance/performance_ucmerced.xlsx
@@ -499,7 +499,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>efficientnet_b3</t>
+          <t>swin_t</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -515,85 +515,85 @@
         <v>0.9975000000000001</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>10.728509</v>
+        <v>28.3</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>386.485288143158</v>
+        <v>421.4442393779755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>efficientnet_b0</t>
+          <t>convnext_tiny</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
         <v>0.9952380952380953</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.995236606212216</v>
+        <v>0.9952351171863368</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.995236606212216</v>
+        <v>0.9952351171863367</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>0.995</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>4.034449</v>
+        <v>28.6</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>289.2607545852661</v>
+        <v>384.7073669433594</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>vit_b_16</t>
+          <t>efficientnet_b0</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
         <v>0.9952380952380953</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.9952351171863368</v>
+        <v>0.995236606212216</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.9952351171863367</v>
+        <v>0.995236606212216</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0.995</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>85.81480500000001</v>
+        <v>5.3</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>426.570805311203</v>
+        <v>215.5847570896149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>convnext_tiny</t>
+          <t>efficientnet_b3</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
         <v>0.9952380952380953</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.9952904238618524</v>
+        <v>0.9952351171863366</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.9952904238618525</v>
+        <v>0.9952351171863367</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>0.995</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>27.836277</v>
+        <v>12.2</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>379.3832261562347</v>
+        <v>312.3280458450317</v>
       </c>
     </row>
     <row r="6">
@@ -603,97 +603,97 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.9928571428571429</v>
+        <v>0.9952380952380953</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.9929079824550209</v>
+        <v>0.9952351171863368</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.9929079824550209</v>
+        <v>0.9952351171863367</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.9925</v>
+        <v>0.995</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>23.551061</v>
+        <v>25.6</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>369.1304423809052</v>
+        <v>401.7651484012604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>densenet121</t>
+          <t>resnet101</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
         <v>0.9928571428571429</v>
       </c>
       <c r="C7" s="3" t="n">
+        <v>0.9928526757795052</v>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>0.992852675779505</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>0.9928526757795051</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0.9925</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>6.975381</v>
+        <v>44.5</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>315.0202620029449</v>
+        <v>374.3951771259308</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>swin_t</t>
+          <t>densenet121</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
         <v>0.9904761904761905</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.9904627668519106</v>
+        <v>0.9904612778260312</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.9904627668519105</v>
+        <v>0.9904612778260311</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>0.99</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>27.535503</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>246.4894909858704</v>
+        <v>211.3503749370575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>resnet101</t>
+          <t>vit_b_16</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9809523809523809</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.9881998953427524</v>
+        <v>0.9809002756089702</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.9881998953427524</v>
+        <v>0.9809002756089702</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.9875</v>
+        <v>0.98</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>42.543189</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>259.3449816703796</v>
+        <v>282.4712982177734</v>
       </c>
     </row>
   </sheetData>
